--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FF3840-3E89-49B0-B772-111A9C3D3B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4799C41-294F-4157-9F1D-DC95CADD5323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
+    <sheet name="PassengerDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>frominput</t>
   </si>
@@ -64,16 +65,48 @@
   </si>
   <si>
     <t>Bangalore</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>mobilenumber</t>
+  </si>
+  <si>
+    <t>surya@gmail.com</t>
+  </si>
+  <si>
+    <t>upiid</t>
+  </si>
+  <si>
+    <t>surya@ybl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,13 +129,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -383,7 +419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -444,4 +480,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF429296-071D-44F0-B721-F319C3A1378D}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>9875678456</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{35C3A358-2A7A-429E-B68F-216D80761524}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{DBB3562B-9816-431E-9030-55DACBEAA582}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4799C41-294F-4157-9F1D-DC95CADD5323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728258C-99AF-492E-8C82-4D2ED53BDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>frominput</t>
   </si>
@@ -37,33 +37,9 @@
     <t>date</t>
   </si>
   <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>travelclass</t>
-  </si>
-  <si>
-    <t>regularfare</t>
-  </si>
-  <si>
-    <t>Economy/Premium Economy</t>
-  </si>
-  <si>
-    <t>RegularFares</t>
-  </si>
-  <si>
     <t>Mysore</t>
   </si>
   <si>
-    <t>Dec</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
@@ -89,6 +65,12 @@
   </si>
   <si>
     <t>surya@ybl</t>
+  </si>
+  <si>
+    <t>seatposition</t>
+  </si>
+  <si>
+    <t>Fri Dec 15 2023</t>
   </si>
 </sst>
 </file>
@@ -417,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,46 +417,22 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2">
-        <v>23</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" t="s">
-        <v>9</v>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -486,7 +444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF429296-071D-44F0-B721-F319C3A1378D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -497,36 +455,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>35</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>9875678456</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E728258C-99AF-492E-8C82-4D2ED53BDF18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DDBC05-9011-4AD7-93D8-E2A453DDE80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DDBC05-9011-4AD7-93D8-E2A453DDE80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9D4DA7-7D2C-465C-8A85-12861A8E0C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9D4DA7-7D2C-465C-8A85-12861A8E0C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA92BC2D-88C8-40BB-95B1-4C5F1ED48D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA92BC2D-88C8-40BB-95B1-4C5F1ED48D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E58FB-19C1-47A2-9219-5EF327CA7D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>frominput</t>
   </si>
@@ -399,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,8 +420,11 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -433,6 +436,9 @@
       </c>
       <c r="H2">
         <v>35</v>
+      </c>
+      <c r="J2">
+        <v>9876</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651E58FB-19C1-47A2-9219-5EF327CA7D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF442C-76A4-4D3A-AAFC-7D67D8C35E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>frominput</t>
   </si>
@@ -399,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -420,11 +420,8 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -436,9 +433,6 @@
       </c>
       <c r="H2">
         <v>35</v>
-      </c>
-      <c r="J2">
-        <v>9876</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DF442C-76A4-4D3A-AAFC-7D67D8C35E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7D526-3F06-471E-BA17-83DD220BACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7D526-3F06-471E-BA17-83DD220BACCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D77F50-1D3F-4345-9430-6549F7D3D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D77F50-1D3F-4345-9430-6549F7D3D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E3823-A060-402F-A7B9-CD6B3D0B1A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408E3823-A060-402F-A7B9-CD6B3D0B1A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B8A89-1165-402B-A729-FC8108890699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B8A89-1165-402B-A729-FC8108890699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E6CB45-04DB-4E59-981F-71EC3E1BD76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80E6CB45-04DB-4E59-981F-71EC3E1BD76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E6303-31FF-45C0-9BDE-3D5773323CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MakeMyTripBus/TestData/InputData.xlsx
+++ b/MakeMyTripBus/TestData/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\249079\source\repos\Selenium_MiniProject\MakeMyTripBus\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921E6303-31FF-45C0-9BDE-3D5773323CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDDDC97-DB45-4A04-97B7-ACD8F75A2B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="H2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
